--- a/Datasets/housingtest.xlsx
+++ b/Datasets/housingtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sdl\sdlproject\InsightX-An-AI-Data-Analyst-main\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001834E7-C82E-4B9A-828C-D7FDB0811AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187AD18E-79FA-4335-B22C-EF27D49978E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="18">
   <si>
     <t>price</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,19 +450,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>13300000</v>
+        <v>3220000</v>
       </c>
       <c r="B2">
-        <v>7420</v>
+        <v>2684</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -480,33 +480,33 @@
         <v>13</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>12250000</v>
+        <v>3220000</v>
       </c>
       <c r="B3">
-        <v>8960</v>
+        <v>4320</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -518,42 +518,42 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>12250000</v>
+        <v>3220000</v>
       </c>
       <c r="B4">
-        <v>9960</v>
+        <v>3120</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -562,30 +562,30 @@
         <v>14</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>12215000</v>
+        <v>3150000</v>
       </c>
       <c r="B5">
-        <v>7500</v>
+        <v>3450</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -594,19 +594,19 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -614,22 +614,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11410000</v>
+        <v>3150000</v>
       </c>
       <c r="B6">
-        <v>7420</v>
+        <v>3986</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -641,36 +641,36 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10850000</v>
+        <v>3150000</v>
       </c>
       <c r="B7">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -682,13 +682,13 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -696,19 +696,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10150000</v>
+        <v>3150000</v>
       </c>
       <c r="B8">
-        <v>8580</v>
+        <v>4095</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -723,13 +723,13 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
         <v>16</v>
@@ -737,28 +737,28 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10150000</v>
+        <v>3150000</v>
       </c>
       <c r="B9">
-        <v>16200</v>
+        <v>1650</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -778,13 +778,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9870000</v>
+        <v>3150000</v>
       </c>
       <c r="B10">
-        <v>8100</v>
+        <v>3450</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -805,39 +805,39 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9800000</v>
+        <v>3150000</v>
       </c>
       <c r="B11">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -846,24 +846,24 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9800000</v>
+        <v>3150000</v>
       </c>
       <c r="B12">
-        <v>13200</v>
+        <v>9000</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -881,104 +881,3794 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9681000</v>
+        <v>3150000</v>
       </c>
       <c r="B13">
-        <v>6000</v>
+        <v>3069</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9310000</v>
+        <v>3143000</v>
       </c>
       <c r="B14">
-        <v>6550</v>
+        <v>4500</v>
       </c>
       <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3129000</v>
+      </c>
+      <c r="B15">
+        <v>5495</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3118850</v>
+      </c>
+      <c r="B16">
+        <v>2398</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3115000</v>
+      </c>
+      <c r="B17">
+        <v>3000</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3115000</v>
+      </c>
+      <c r="B18">
+        <v>3850</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3115000</v>
+      </c>
+      <c r="B19">
+        <v>3500</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3087000</v>
+      </c>
+      <c r="B20">
+        <v>8100</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3080000</v>
+      </c>
+      <c r="B21">
+        <v>4960</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3080000</v>
+      </c>
+      <c r="B22">
+        <v>2160</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3080000</v>
+      </c>
+      <c r="B23">
+        <v>3090</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3080000</v>
+      </c>
+      <c r="B24">
+        <v>4500</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3045000</v>
+      </c>
+      <c r="B25">
+        <v>3800</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3010000</v>
+      </c>
+      <c r="B26">
+        <v>3090</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3010000</v>
+      </c>
+      <c r="B27">
+        <v>3240</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3010000</v>
+      </c>
+      <c r="B28">
+        <v>2835</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3010000</v>
+      </c>
+      <c r="B29">
+        <v>4600</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3010000</v>
+      </c>
+      <c r="B30">
+        <v>5076</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3010000</v>
+      </c>
+      <c r="B31">
+        <v>3750</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3010000</v>
+      </c>
+      <c r="B32">
+        <v>3630</v>
+      </c>
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3003000</v>
+      </c>
+      <c r="B33">
+        <v>8050</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2975000</v>
+      </c>
+      <c r="B34">
+        <v>4352</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2961000</v>
+      </c>
+      <c r="B35">
+        <v>3000</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2940000</v>
+      </c>
+      <c r="B36">
+        <v>5850</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2940000</v>
+      </c>
+      <c r="B37">
+        <v>4960</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2940000</v>
+      </c>
+      <c r="B38">
+        <v>3600</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2940000</v>
+      </c>
+      <c r="B39">
+        <v>3660</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2940000</v>
+      </c>
+      <c r="B40">
+        <v>3480</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2940000</v>
+      </c>
+      <c r="B41">
+        <v>2700</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2940000</v>
+      </c>
+      <c r="B42">
+        <v>3150</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2940000</v>
+      </c>
+      <c r="B43">
+        <v>6615</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2870000</v>
+      </c>
+      <c r="B44">
+        <v>3040</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2870000</v>
+      </c>
+      <c r="B45">
+        <v>3630</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2870000</v>
+      </c>
+      <c r="B46">
+        <v>6000</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2870000</v>
+      </c>
+      <c r="B47">
+        <v>5400</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2852500</v>
+      </c>
+      <c r="B48">
+        <v>5200</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2835000</v>
+      </c>
+      <c r="B49">
+        <v>3300</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2835000</v>
+      </c>
+      <c r="B50">
+        <v>4350</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2835000</v>
+      </c>
+      <c r="B51">
+        <v>2640</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2800000</v>
+      </c>
+      <c r="B52">
+        <v>2650</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2800000</v>
+      </c>
+      <c r="B53">
+        <v>3960</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2730000</v>
+      </c>
+      <c r="B54">
+        <v>6800</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2730000</v>
+      </c>
+      <c r="B55">
+        <v>4000</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2695000</v>
+      </c>
+      <c r="B56">
+        <v>4000</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2660000</v>
+      </c>
+      <c r="B57">
+        <v>3934</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2660000</v>
+      </c>
+      <c r="B58">
+        <v>2000</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2660000</v>
+      </c>
+      <c r="B59">
+        <v>3630</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2660000</v>
+      </c>
+      <c r="B60">
+        <v>2800</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2660000</v>
+      </c>
+      <c r="B61">
+        <v>2430</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2660000</v>
+      </c>
+      <c r="B62">
+        <v>3480</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2660000</v>
+      </c>
+      <c r="B63">
+        <v>4000</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2653000</v>
+      </c>
+      <c r="B64">
+        <v>3185</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2653000</v>
+      </c>
+      <c r="B65">
+        <v>4000</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2604000</v>
+      </c>
+      <c r="B66">
+        <v>2910</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2590000</v>
+      </c>
+      <c r="B67">
+        <v>3600</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2590000</v>
+      </c>
+      <c r="B68">
+        <v>4400</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2590000</v>
+      </c>
+      <c r="B69">
+        <v>3600</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2520000</v>
+      </c>
+      <c r="B70">
+        <v>2880</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>14</v>
+      </c>
+      <c r="M70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2520000</v>
+      </c>
+      <c r="B71">
+        <v>3180</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>14</v>
+      </c>
+      <c r="M71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2520000</v>
+      </c>
+      <c r="B72">
+        <v>3000</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>14</v>
+      </c>
+      <c r="M72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2485000</v>
+      </c>
+      <c r="B73">
+        <v>4400</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>14</v>
+      </c>
+      <c r="M73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2485000</v>
+      </c>
+      <c r="B74">
+        <v>3000</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>14</v>
+      </c>
+      <c r="M74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2450000</v>
+      </c>
+      <c r="B75">
+        <v>3210</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>14</v>
+      </c>
+      <c r="M75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2450000</v>
+      </c>
+      <c r="B76">
+        <v>3240</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>14</v>
+      </c>
+      <c r="M76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2450000</v>
+      </c>
+      <c r="B77">
+        <v>3000</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2450000</v>
+      </c>
+      <c r="B78">
+        <v>3500</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2450000</v>
+      </c>
+      <c r="B79">
+        <v>4840</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2450000</v>
+      </c>
+      <c r="B80">
+        <v>7700</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2408000</v>
+      </c>
+      <c r="B81">
+        <v>3635</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>14</v>
+      </c>
+      <c r="M81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2380000</v>
+      </c>
+      <c r="B82">
+        <v>2475</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2380000</v>
+      </c>
+      <c r="B83">
+        <v>2787</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>14</v>
+      </c>
+      <c r="M83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2380000</v>
+      </c>
+      <c r="B84">
+        <v>3264</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2345000</v>
+      </c>
+      <c r="B85">
+        <v>3640</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2310000</v>
+      </c>
+      <c r="B86">
+        <v>3180</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2275000</v>
+      </c>
+      <c r="B87">
+        <v>1836</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>14</v>
+      </c>
+      <c r="M87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2275000</v>
+      </c>
+      <c r="B88">
+        <v>3970</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2275000</v>
+      </c>
+      <c r="B89">
+        <v>3970</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2240000</v>
+      </c>
+      <c r="B90">
+        <v>1950</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2233000</v>
+      </c>
+      <c r="B91">
+        <v>5300</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>13</v>
+      </c>
+      <c r="M91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2135000</v>
+      </c>
+      <c r="B92">
+        <v>3000</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>14</v>
+      </c>
+      <c r="M92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2100000</v>
+      </c>
+      <c r="B93">
+        <v>2400</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>14</v>
+      </c>
+      <c r="M93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2100000</v>
+      </c>
+      <c r="B94">
+        <v>3000</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>14</v>
+      </c>
+      <c r="M94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2100000</v>
+      </c>
+      <c r="B95">
+        <v>3360</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1960000</v>
+      </c>
+      <c r="B96">
+        <v>3420</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1890000</v>
+      </c>
+      <c r="B97">
+        <v>1700</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1890000</v>
+      </c>
+      <c r="B98">
+        <v>3649</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>14</v>
+      </c>
+      <c r="M98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1855000</v>
+      </c>
+      <c r="B99">
+        <v>2990</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1820000</v>
+      </c>
+      <c r="B100">
+        <v>3000</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100" t="s">
+        <v>14</v>
+      </c>
+      <c r="M100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1767150</v>
+      </c>
+      <c r="B101">
+        <v>2400</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1750000</v>
+      </c>
+      <c r="B102">
+        <v>3620</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>14</v>
+      </c>
+      <c r="M102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1750000</v>
+      </c>
+      <c r="B103">
+        <v>2910</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>14</v>
+      </c>
+      <c r="M103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1750000</v>
+      </c>
+      <c r="B104">
+        <v>3850</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
